--- a/biology/Zoologie/Boleophthalmus_pectinirostris/Boleophthalmus_pectinirostris.xlsx
+++ b/biology/Zoologie/Boleophthalmus_pectinirostris/Boleophthalmus_pectinirostris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boleophthalmus pectinirostris est une espèce de gobies, poissons de la famille des Gobiidae, de la sous-famille des Oxudercinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille peut atteindre 20 cm[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille peut atteindre 20 cm,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce de climat tropical (26-30 °C) vivant dans la zone démersale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce de climat tropical (26-30 °C) vivant dans la zone démersale.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les eaux côtières de Chine, Corée, Japon et Taïwan[1],[3],[4],[5],[6],[7],[8],[9],[10],[11],[12],[13],[14],[15],[16],[17].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les eaux côtières de Chine, Corée, Japon et Taïwan.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Observations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inoffensif pour l'être humain[1], il est utilisé dans la médecine chinoise[18].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inoffensif pour l'être humain, il est utilisé dans la médecine chinoise.
 </t>
         </is>
       </c>
